--- a/auto_test/data/test_data.xlsx
+++ b/auto_test/data/test_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\api_test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\auto_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0075D1-05D0-42CC-84FF-274BB8744686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53385CB7-E545-4031-B5E9-6945250D5A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="接口测试用例_1" sheetId="2" r:id="rId1"/>
+    <sheet name="测试用户_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,134 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_case_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_case_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_case_3</t>
-  </si>
-  <si>
-    <t>test_case_4</t>
-  </si>
-  <si>
-    <t>test_case_5</t>
-  </si>
-  <si>
-    <t>/api/admin-api/system/auth/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "username": "tom.t.xu", "password": "123456", "captchaVerification": ""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>req_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"userId": 3334060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200_test</t>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom.t.xu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhen.Feng.He</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joyce.JY.Jiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spencer.MY.Zhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ally.Or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>April-AJ.Yan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM_EP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,14 +122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,14 +132,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -252,23 +175,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,232 +463,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="2"/>
+    <col min="1" max="1" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="C4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="C6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="C7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
